--- a/Med People/Restore Tree.xlsx
+++ b/Med People/Restore Tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\SQL Server Management Studio\Restore Scripts\Med People\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB698F-0A9F-4A1D-9729-A632B75D50D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED081A-6327-4950-ABE0-1AD29EFA7F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restore Tree" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="284">
   <si>
     <t>LinkObjectToActivityHistory</t>
   </si>
@@ -385,9 +385,6 @@
     <t>update - set PositionsID</t>
   </si>
   <si>
-    <t>update - handled by PCS restore</t>
-  </si>
-  <si>
     <t>SearchContactRecord</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Companies</t>
   </si>
   <si>
-    <t>handled as main record child</t>
-  </si>
-  <si>
     <t>LastAHID etc - handled as main record</t>
   </si>
   <si>
@@ -424,9 +418,6 @@
     <t>handled</t>
   </si>
   <si>
-    <t>Interview, CandidateCredentials, CandidateReferences, PCS, PCB, People</t>
-  </si>
-  <si>
     <t>PCS</t>
   </si>
   <si>
@@ -749,13 +740,163 @@
   </si>
   <si>
     <t>set</t>
+  </si>
+  <si>
+    <t>NESTED - People.HomeAddressesID, BusinessAddressesID, AlternativeAddressesID. MED CUSTOM</t>
+  </si>
+  <si>
+    <t>MailingAddresses, LinkAddresstoMCRContract, Positions update</t>
+  </si>
+  <si>
+    <t>Interview, CandidateCredentials, CandidateReferences</t>
+  </si>
+  <si>
+    <t>UsersCommissionsSplit</t>
+  </si>
+  <si>
+    <t>PeopleID &amp; type = 'Submission' &amp; ObjectID = 0 (SHOULD HAVE JOBORDERSID - fix trigger)</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Interviewer = PeopleID, ProjectsID = ProjectsID. Done = 0</t>
+  </si>
+  <si>
+    <t>ObjectID = PositionsID and Type = 'Placement'</t>
+  </si>
+  <si>
+    <t>LinkCredentialsToJobOrders</t>
+  </si>
+  <si>
+    <t>JobOrdersID, LinkPeopleToCredentialsID</t>
+  </si>
+  <si>
+    <t>ObjectID = InterviewID and Type = 'Interview'</t>
+  </si>
+  <si>
+    <t>RightID</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>, null, 0),</t>
+  </si>
+  <si>
+    <t>Tar.PeopleID = Sour.PeopleID and Tar.MProjectsID = Sour.MProjectsID</t>
+  </si>
+  <si>
+    <t>Tar.PeopleID = Sour.PeopleID and Tar.OpportunitiesID = Sour.OpportunitiesID</t>
+  </si>
+  <si>
+    <t>Tar.PeopleID = Sour.PeopleID and Tar.MProjectsID = Sour.MProjectsID and Tar.CompaniesID = Sour.CompaniesID</t>
+  </si>
+  <si>
+    <t>Tar.LeftID = Sour.LeftID and Tar.RightID = Sour.RightID and Tar.ObjectTableName = Sour.ObjectTableName</t>
+  </si>
+  <si>
+    <t>, 0),</t>
+  </si>
+  <si>
+    <t>Tar.LeftID = Sour.LeftID and Tar.RightID = Sour.RightID</t>
+  </si>
+  <si>
+    <t>, null, 0)</t>
+  </si>
+  <si>
+    <t>values(</t>
+  </si>
+  <si>
+    <t>Tar.PositionDetailsID = Sour.PositionDetailsID</t>
+  </si>
+  <si>
+    <t>PositionDetailsID</t>
+  </si>
+  <si>
+    <t>SourParent.PositionsID = Sour.PositionsID</t>
+  </si>
+  <si>
+    <t>Tar.PositionsID = Sour.PositionsID and Tar.RateTypesID = Sour.RateTypesID</t>
+  </si>
+  <si>
+    <t>PositionsID</t>
+  </si>
+  <si>
+    <t>Tar.PositionsID = Sour.PositionsID and Tar.JobOrderScheduleID = Sour.JobOrderScheduleID</t>
+  </si>
+  <si>
+    <t>Tar.PositionsID = Sour.PositionsID and isnull(Tar.WorkStepsID, 0) = isnull(Sour.WorkStepsID, 0) and isnull(Tar.JobOrdersID, 0) = isnull(Sour.JobOrdersID, 0) and isnull(Tar.AssignmentsID, 0) = isnull(Sour.AssignmentsID, 0)</t>
+  </si>
+  <si>
+    <t>Tar.TimesheetsID = Sour.TimesheetsID</t>
+  </si>
+  <si>
+    <t>TimesheetsID</t>
+  </si>
+  <si>
+    <t>Tar.PositionExpensesID = Sour.PositionExpensesID</t>
+  </si>
+  <si>
+    <t>PositionExpensesID</t>
+  </si>
+  <si>
+    <t>Tar.JobOrderPositionTeamsID = Sour.JobOrderPositionTeamsID</t>
+  </si>
+  <si>
+    <t>JobOrderPositionTeamsID</t>
+  </si>
+  <si>
+    <t>Tar.LinkToDistListID = Sour.LinkToDistListID</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>SourParent.EmailAddressID = Sour.EmailAddressID</t>
+  </si>
+  <si>
+    <t>SourParent.EmailAddressID = Sour.DistListID</t>
+  </si>
+  <si>
+    <t>Tar.EmailMsgRecipientsID = Sour.EmailMsgRecipientsID</t>
+  </si>
+  <si>
+    <t>EmailMsgRecipientsID</t>
+  </si>
+  <si>
+    <t>EmailArchive</t>
+  </si>
+  <si>
+    <t>SourParent.EmailArchiveID = Sour.EmailArchiveID</t>
+  </si>
+  <si>
+    <t>Tar.EmailMsgAttachmentsID = Sour.EmailMsgAttachmentsID</t>
+  </si>
+  <si>
+    <t>EmailMsgAttachmentsID</t>
+  </si>
+  <si>
+    <t>SourParent.EmailArchiveID = Sour.LeftID</t>
+  </si>
+  <si>
+    <t>Tar.LinkIntInterviewsToResultsID = Sour.LinkIntInterviewsToResultsID</t>
+  </si>
+  <si>
+    <t>SourParent.InternalInterviewsID = Sour.InternalInterviewsID</t>
+  </si>
+  <si>
+    <t>TaskID = TaskID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,8 +912,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -916,7 +1069,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -925,12 +1077,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,12 +1371,12 @@
     <col min="1" max="1" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="6" customWidth="1"/>
     <col min="3" max="4" width="31.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="89.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="93.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" style="5" customWidth="1"/>
     <col min="12" max="12" width="47" style="5" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" style="5" customWidth="1"/>
@@ -1243,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1255,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1267,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1285,7 +1433,7 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1301,824 +1449,842 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>66</v>
       </c>
+      <c r="F11" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="27" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="21" t="s">
         <v>108</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="H23" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>81</v>
+      <c r="I35" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>148</v>
+        <v>75</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
-        <v>75</v>
+      <c r="B37" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
-        <v>35</v>
+      <c r="B38" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
-        <v>39</v>
+      <c r="B39" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="F39" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
-        <v>40</v>
+      <c r="B40" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
-        <v>41</v>
+      <c r="B41" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
-        <v>42</v>
+      <c r="B42" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
-        <v>57</v>
+      <c r="B43" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
-        <v>56</v>
+      <c r="B44" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="27" t="s">
-        <v>44</v>
+      <c r="B45" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>129</v>
+      <c r="F45" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="F46" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F47" s="21" t="s">
-        <v>126</v>
+      <c r="F47" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
-        <v>46</v>
+      <c r="B48" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>126</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
-        <v>47</v>
+      <c r="B49" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>129</v>
+      <c r="F49" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
-        <v>48</v>
+      <c r="B50" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>126</v>
+      <c r="F50" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
-        <v>49</v>
+      <c r="B51" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="21" t="s">
-        <v>128</v>
+      <c r="F51" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="27" t="s">
-        <v>50</v>
+      <c r="B52" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>126</v>
+      <c r="F52" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
-        <v>52</v>
+      <c r="B53" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
-        <v>67</v>
+      <c r="B54" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
-        <v>51</v>
+      <c r="B55" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>126</v>
+        <v>97</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
-        <v>60</v>
+      <c r="B56" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="27" t="s">
-        <v>7</v>
+      <c r="B57" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
-        <v>63</v>
+      <c r="B58" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="27" t="s">
-        <v>65</v>
+      <c r="B59" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="27" t="s">
-        <v>68</v>
+      <c r="B60" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
-        <v>69</v>
+      <c r="B61" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="27" t="s">
-        <v>70</v>
+      <c r="B62" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="s">
-        <v>16</v>
+      <c r="B63" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="F63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="27" t="s">
-        <v>18</v>
+      <c r="B64" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
-        <v>73</v>
+      <c r="B65" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="26" t="s">
+      <c r="E66" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="27" t="s">
+      <c r="F67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="J71" s="8"/>
+    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>26</v>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="21" t="s">
-        <v>67</v>
+      <c r="F73" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="21" t="s">
-        <v>116</v>
+      <c r="F74" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>118</v>
+      <c r="B75" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="B76" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D76" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E76" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B78" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="J80" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>72</v>
+      <c r="B81" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F81" s="12"/>
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>87</v>
+      <c r="E82" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="F82" s="12"/>
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="23" t="s">
         <v>85</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F83" s="12"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="J85" s="12"/>
-    </row>
-    <row r="86" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="28" t="s">
+    <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="F84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="J89" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="J89" s="12"/>
     </row>
     <row r="90" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
-        <v>146</v>
+      <c r="B90" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="F90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="J91" s="12"/>
-    </row>
-    <row r="92" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="12"/>
-      <c r="J92" s="12"/>
-    </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="16" t="s">
+    <row r="91" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="J91" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2128,302 +2294,949 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859B218A-C3D3-4F5B-8EFC-2EA5465F71A3}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="str">
-        <f>VLOOKUP(A1,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>Addresses</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>Addresses</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP(A3,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>Addresses</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>Resumes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>EMailAddress</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="str">
+        <f>VLOOKUP(G1,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>PositionDetails</v>
+      </c>
+      <c r="I1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(G2,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>LinkPositionsToRates</v>
+      </c>
+      <c r="I2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="e">
+        <f>VLOOKUP(G3,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(G4,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>LinkJobOrderToWorksteps</v>
+      </c>
+      <c r="I4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(G5,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>Timesheets</v>
+      </c>
+      <c r="I5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(G6,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>PositionExpenses</v>
+      </c>
+      <c r="I6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="e">
+        <f>VLOOKUP(G7,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(G8,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>LinkAddressToDistList</v>
+      </c>
+      <c r="I8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M8" t="s">
+        <v>271</v>
+      </c>
+      <c r="N8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(G9,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>LinkAddressToDistList</v>
+      </c>
+      <c r="I9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N9" t="s">
+        <v>247</v>
+      </c>
+      <c r="O9" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(G10,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>EmailMsgRecipients</v>
+      </c>
+      <c r="I10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" t="s">
+        <v>276</v>
+      </c>
+      <c r="N10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(G11,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>EmailMsgAttachments</v>
+      </c>
+      <c r="I11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N11" t="s">
+        <v>247</v>
+      </c>
+      <c r="O11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+      <c r="H12" t="str">
+        <f>VLOOKUP(G12,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
         <v>LinkObjectToActivityHistory</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O12" t="s">
+        <v>280</v>
+      </c>
+      <c r="P12" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>247</v>
+      </c>
+      <c r="S12" t="s">
+        <v>276</v>
+      </c>
+      <c r="T12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="e">
+        <f>VLOOKUP(G13,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" t="e">
+        <f>VLOOKUP(G14,'Restore Tree'!$F$6:$F$41,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(D15,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>LinkContactsToMProjects</v>
+      </c>
+      <c r="F15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(D16,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>LinkContactsToOpportunities</v>
+      </c>
+      <c r="F16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(D17,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>MProjectCompaniesContacts</v>
+      </c>
+      <c r="F17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="e">
+        <f>VLOOKUP(D18,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>247</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>LinkObjectToDocument</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E19" t="e">
+        <f>VLOOKUP(D19,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>247</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>LinkObjectToTask</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>LinkPeopleToNetWork</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>LinkPeopleToNetWork</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>LinkPeopleToSkills</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>ListsDetails</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>JobOrderConsideredPeople</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>JobOrderInterviewPeople</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>JobOrderInternalInterviewPeople</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>JobOrderPresentedPeople</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(A18,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>ProjectsClientTeams</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>ProjectsBenchmarkCandidates</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>ProjectsInternalInterviewLists</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
-        <v>ProjectsPresentedLists</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" t="e">
+        <f>VLOOKUP(D20,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>247</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="e">
+        <f>VLOOKUP(D21,'Restore Tree'!$B$47:$B$67,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>247</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="str">
-        <f>VLOOKUP(A22,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A22,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsSources</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="str">
-        <f>VLOOKUP(A23,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A23,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsClientEmployeesLists</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
       <c r="B24" t="str">
-        <f>VLOOKUP(A24,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A24,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsShortLists</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="str">
-        <f>VLOOKUP(A25,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A25,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsTargetLists</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="str">
-        <f>VLOOKUP(A26,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A26,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectTargetCompaniesCandidates</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="str">
-        <f>VLOOKUP(A27,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A27,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsFileSearchCandidates</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="str">
-        <f>VLOOKUP(A28,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A28,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>Affiliates</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="str">
-        <f>VLOOKUP(A29,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A29,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>CandidateCredentials</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="str">
-        <f>VLOOKUP(A30,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A30,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>JobOrdersTargetCompaniesCandidates</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="str">
-        <f>VLOOKUP(A31,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A31,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>JobOrdersSources</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
       <c r="B32" t="str">
-        <f>VLOOKUP(A32,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A32,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>CandidateReferrals</v>
       </c>
     </row>
@@ -2432,7 +3245,7 @@
         <v>59</v>
       </c>
       <c r="B33" t="str">
-        <f>VLOOKUP(A33,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A33,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>CandidateReferences</v>
       </c>
     </row>
@@ -2441,7 +3254,7 @@
         <v>60</v>
       </c>
       <c r="B34" t="str">
-        <f>VLOOKUP(A34,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A34,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>PeopleAppliedTo</v>
       </c>
     </row>
@@ -2450,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="str">
-        <f>VLOOKUP(A35,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A35,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkContactsToTask</v>
       </c>
     </row>
@@ -2459,7 +3272,7 @@
         <v>54</v>
       </c>
       <c r="B36" t="str">
-        <f>VLOOKUP(A36,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A36,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>CandidateCredentials</v>
       </c>
     </row>
@@ -2468,7 +3281,7 @@
         <v>61</v>
       </c>
       <c r="B37" t="str">
-        <f>VLOOKUP(A37,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A37,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>Education</v>
       </c>
     </row>
@@ -2477,7 +3290,7 @@
         <v>62</v>
       </c>
       <c r="B38" t="str">
-        <f>VLOOKUP(A38,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A38,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>EMailArchive</v>
       </c>
     </row>
@@ -2486,7 +3299,7 @@
         <v>63</v>
       </c>
       <c r="B39" t="str">
-        <f>VLOOKUP(A39,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A39,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkPeopleToPackage</v>
       </c>
     </row>
@@ -2495,7 +3308,7 @@
         <v>64</v>
       </c>
       <c r="B40" t="str">
-        <f>VLOOKUP(A40,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A40,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>PeopleAvailability</v>
       </c>
     </row>
@@ -2504,7 +3317,7 @@
         <v>65</v>
       </c>
       <c r="B41" t="str">
-        <f>VLOOKUP(A41,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A41,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkPeopleToRates</v>
       </c>
     </row>
@@ -2513,7 +3326,7 @@
         <v>66</v>
       </c>
       <c r="B42" t="str">
-        <f>VLOOKUP(A42,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A42,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkPeopleToCredentials</v>
       </c>
     </row>
@@ -2522,7 +3335,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="str">
-        <f>VLOOKUP(A43,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A43,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkPeopleToCompanies</v>
       </c>
     </row>
@@ -2531,7 +3344,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="str">
-        <f>VLOOKUP(A44,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A44,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LastProjectActivity</v>
       </c>
     </row>
@@ -2540,7 +3353,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="str">
-        <f>VLOOKUP(A45,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A45,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsCandidateBlocks</v>
       </c>
     </row>
@@ -2549,7 +3362,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="str">
-        <f>VLOOKUP(A46,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A46,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>EventSessionsInvitees</v>
       </c>
     </row>
@@ -2558,7 +3371,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="str">
-        <f>VLOOKUP(A47,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A47,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>EventSessionVendors</v>
       </c>
     </row>
@@ -2567,7 +3380,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="str">
-        <f>VLOOKUP(A48,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A48,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>JobOrderClientTeams</v>
       </c>
     </row>
@@ -2576,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="B49" t="str">
-        <f>VLOOKUP(A49,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A49,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkCandidatesToMPContacts</v>
       </c>
     </row>
@@ -2585,7 +3398,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="str">
-        <f>VLOOKUP(A50,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A50,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkCandidatesToMProjects</v>
       </c>
     </row>
@@ -2594,7 +3407,7 @@
         <v>18</v>
       </c>
       <c r="B51" t="str">
-        <f>VLOOKUP(A51,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A51,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkContactsToMProjects</v>
       </c>
     </row>
@@ -2603,7 +3416,7 @@
         <v>73</v>
       </c>
       <c r="B52" t="str">
-        <f>VLOOKUP(A52,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A52,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkContactsToOpportunities</v>
       </c>
     </row>
@@ -2612,7 +3425,7 @@
         <v>74</v>
       </c>
       <c r="B53" t="str">
-        <f>VLOOKUP(A53,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A53,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>LinkPeopleToKnownToUsers</v>
       </c>
     </row>
@@ -2621,7 +3434,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="str">
-        <f>VLOOKUP(A54,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A54,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>MProjectCompaniesContacts</v>
       </c>
     </row>
@@ -2630,7 +3443,7 @@
         <v>75</v>
       </c>
       <c r="B55" t="str">
-        <f>VLOOKUP(A55,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A55,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>PeopleAdditionalNames</v>
       </c>
     </row>
@@ -2639,7 +3452,7 @@
         <v>76</v>
       </c>
       <c r="B56" t="str">
-        <f>VLOOKUP(A56,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A56,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>ProjectsCallStatus</v>
       </c>
     </row>
@@ -2648,295 +3461,295 @@
         <v>83</v>
       </c>
       <c r="B57" t="str">
-        <f>VLOOKUP(A57,'Restore Tree'!$B$2:$B$87, 1, FALSE)</f>
+        <f>VLOOKUP(A57,'Restore Tree'!$B$2:$B$85, 1, FALSE)</f>
         <v>Positions</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I61" t="s">
         <v>31</v>
       </c>
       <c r="J61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I62" t="s">
         <v>72</v>
       </c>
       <c r="J62" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s">
         <v>31</v>
       </c>
       <c r="M62" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s">
         <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I63" t="s">
         <v>87</v>
       </c>
       <c r="J63" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K63" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
       </c>
       <c r="M63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N63" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
         <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I64" t="s">
         <v>88</v>
       </c>
       <c r="J64" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K64" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
         <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
         <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G65" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I65" t="s">
         <v>89</v>
       </c>
       <c r="J65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K65" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L65" t="s">
         <v>31</v>
       </c>
       <c r="M65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C66" t="s">
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
         <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I66" t="s">
         <v>90</v>
       </c>
       <c r="J66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L66" t="s">
         <v>31</v>
       </c>
       <c r="M66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
         <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
         <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I67" t="s">
         <v>91</v>
       </c>
       <c r="J67" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N67" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +3774,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -2972,13 +3785,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>95324</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2">
         <v>95324</v>
@@ -2997,13 +3810,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>95324</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>79632</v>
@@ -3019,13 +3832,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>95324</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>52042</v>
@@ -3041,13 +3854,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>95324</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G5" t="e">
         <f t="shared" si="0"/>
@@ -3060,13 +3873,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6">
         <v>95324</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>78177</v>
@@ -3082,13 +3895,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>95324</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>78203</v>
@@ -3104,13 +3917,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8">
         <v>79632</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E8">
         <v>77010</v>
@@ -3126,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9">
         <v>95324</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>78846</v>
@@ -3148,13 +3961,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10">
         <v>95324</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E10">
         <v>78858</v>
@@ -3170,13 +3983,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C11">
         <v>52042</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11">
         <v>78270</v>
@@ -3192,13 +4005,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>79632</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E12">
         <v>66825</v>
@@ -3214,13 +4027,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <v>95324</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E13">
         <v>40710</v>
@@ -3236,13 +4049,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14">
         <v>95324</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>78517</v>
@@ -3258,13 +4071,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15">
         <v>95324</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <v>78181</v>
@@ -3280,13 +4093,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16">
         <v>95324</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G16" t="e">
         <f t="shared" si="0"/>
@@ -3309,13 +4122,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C18">
         <v>78177</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G18" t="e">
         <f t="shared" si="0"/>
@@ -3328,13 +4141,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19">
         <v>95324</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G19" t="e">
         <f t="shared" si="0"/>
@@ -3347,13 +4160,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20">
         <v>95324</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G20" t="e">
         <f t="shared" si="0"/>
@@ -3366,13 +4179,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21">
         <v>95324</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G21" t="e">
         <f t="shared" si="0"/>
@@ -3385,13 +4198,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22">
         <v>95324</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G22" t="e">
         <f t="shared" si="0"/>
@@ -3404,13 +4217,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23">
         <v>95324</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G23" t="e">
         <f t="shared" si="0"/>
@@ -3423,13 +4236,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C24">
         <v>95324</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" t="e">
         <f t="shared" si="0"/>
@@ -3442,13 +4255,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25">
         <v>95324</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" t="e">
         <f t="shared" si="0"/>
@@ -3461,13 +4274,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C26">
         <v>79632</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G26" t="e">
         <f t="shared" si="0"/>
@@ -3480,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27">
         <v>95324</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G27" t="e">
         <f t="shared" si="0"/>
@@ -3499,13 +4312,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C28">
         <v>95324</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28" t="e">
         <f t="shared" si="0"/>
@@ -3518,13 +4331,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C29">
         <v>95324</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G29" t="e">
         <f t="shared" si="0"/>
@@ -3537,13 +4350,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C30">
         <v>95324</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G30" t="e">
         <f t="shared" si="0"/>
@@ -3556,13 +4369,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C31">
         <v>95324</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G31" t="e">
         <f t="shared" si="0"/>
@@ -3575,13 +4388,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C32">
         <v>95324</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G32" t="e">
         <f t="shared" si="0"/>
@@ -3594,13 +4407,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C33">
         <v>95324</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G33" t="e">
         <f t="shared" si="0"/>
@@ -3613,13 +4426,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C34">
         <v>95324</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G34" t="e">
         <f t="shared" si="0"/>
@@ -3632,13 +4445,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C35">
         <v>95324</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G35" t="e">
         <f t="shared" si="0"/>
@@ -3651,13 +4464,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C36">
         <v>95324</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G36" t="e">
         <f t="shared" si="0"/>
@@ -3670,13 +4483,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C37">
         <v>95324</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G37" t="e">
         <f t="shared" si="0"/>
@@ -3689,13 +4502,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38">
         <v>95324</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G38" t="e">
         <f t="shared" si="0"/>
@@ -3708,13 +4521,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C39">
         <v>95324</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G39" t="e">
         <f t="shared" si="0"/>
@@ -3727,13 +4540,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C40">
         <v>95324</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G40" t="e">
         <f t="shared" si="0"/>
@@ -3746,13 +4559,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C41">
         <v>95324</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G41" t="e">
         <f t="shared" si="0"/>
@@ -3765,13 +4578,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C42">
         <v>95324</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G42" t="e">
         <f t="shared" si="0"/>
@@ -3784,13 +4597,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C43">
         <v>78203</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G43" t="e">
         <f t="shared" si="0"/>
@@ -3803,13 +4616,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C44">
         <v>95324</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G44" t="e">
         <f t="shared" si="0"/>
@@ -3822,13 +4635,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C45">
         <v>95324</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G45" t="e">
         <f t="shared" si="0"/>
@@ -3841,13 +4654,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C46">
         <v>95324</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G46" t="e">
         <f t="shared" si="0"/>
@@ -3860,13 +4673,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47">
         <v>95324</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G47" t="e">
         <f t="shared" si="0"/>
@@ -3879,13 +4692,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C48">
         <v>95324</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G48" t="e">
         <f t="shared" si="0"/>
@@ -3898,13 +4711,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C49">
         <v>95324</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G49" t="e">
         <f t="shared" si="0"/>
@@ -3917,13 +4730,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50">
         <v>95324</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G50" t="e">
         <f t="shared" si="0"/>
@@ -3936,13 +4749,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C51">
         <v>95324</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G51" t="e">
         <f t="shared" si="0"/>
@@ -3955,13 +4768,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C52">
         <v>95324</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G52" t="e">
         <f t="shared" si="0"/>
@@ -3974,13 +4787,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C53">
         <v>95324</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G53" t="e">
         <f t="shared" si="0"/>
@@ -3993,13 +4806,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C54">
         <v>95324</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G54" t="e">
         <f t="shared" si="0"/>
@@ -4022,13 +4835,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C56">
         <v>95324</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G56" t="e">
         <f t="shared" si="0"/>
@@ -4041,13 +4854,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C57">
         <v>77010</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G57" t="e">
         <f t="shared" si="0"/>
@@ -4060,13 +4873,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C58">
         <v>78846</v>
       </c>
       <c r="D58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G58" t="e">
         <f t="shared" si="0"/>
@@ -4079,13 +4892,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C59">
         <v>79632</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G59" t="e">
         <f t="shared" si="0"/>
@@ -4098,13 +4911,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C60">
         <v>79632</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G60" t="e">
         <f t="shared" si="0"/>
@@ -4117,13 +4930,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C61">
         <v>79632</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G61" t="e">
         <f t="shared" si="0"/>
@@ -4136,13 +4949,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C62">
         <v>78177</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G62" t="e">
         <f t="shared" si="0"/>
@@ -4155,13 +4968,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C63">
         <v>95324</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G63" t="e">
         <f t="shared" si="0"/>
@@ -4174,13 +4987,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C64">
         <v>95324</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G64" t="e">
         <f t="shared" si="0"/>
@@ -4193,13 +5006,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C65">
         <v>95324</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G65" t="e">
         <f t="shared" si="0"/>
@@ -4212,13 +5025,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C66">
         <v>78858</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G66" t="e">
         <f t="shared" si="0"/>
@@ -4241,13 +5054,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C68">
         <v>78270</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G68" t="e">
         <f t="shared" si="2"/>
@@ -4260,13 +5073,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C69">
         <v>66825</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G69" t="e">
         <f t="shared" si="2"/>
@@ -4279,13 +5092,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C70">
         <v>40710</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G70" t="e">
         <f t="shared" si="2"/>
@@ -4298,13 +5111,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C71">
         <v>78270</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G71" t="e">
         <f t="shared" si="2"/>
@@ -4327,13 +5140,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>78517</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G73" t="e">
         <f t="shared" si="2"/>
@@ -4376,13 +5189,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C77">
         <v>95324</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G77" t="e">
         <f t="shared" si="2"/>
@@ -4395,13 +5208,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C78">
         <v>95324</v>
       </c>
       <c r="D78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G78" t="e">
         <f t="shared" si="2"/>
@@ -4414,13 +5227,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C79">
         <v>78181</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
@@ -4434,10 +5247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65B7801-4248-4515-8576-2B571CA2AF7A}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75:I78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,11 +5293,11 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF('Restore Tree'!B67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B67&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Addresses'</v>
+        <f>IF('Restore Tree'!B5&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B5&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Resumes'</v>
       </c>
       <c r="E3" t="str">
-        <f>IF('Restore Tree'!F67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F67&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F5&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F5&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I3" t="str">
@@ -4493,223 +5306,223 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
+      <c r="A4" t="str">
+        <f>IF('Restore Tree'!B6&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B6&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Notes'</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF('Restore Tree'!F6&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F6&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f>IF('Restore Tree'!J6&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J6&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>IF('Restore Tree'!B7&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B7&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToSkills'</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF('Restore Tree'!F7&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F7&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF('Restore Tree'!J37&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J37&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>IF('Restore Tree'!B8&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B8&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Affiliates'</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF('Restore Tree'!F8&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F8&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f>IF('Restore Tree'!J7&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J7&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>IF('Restore Tree'!B9&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B9&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Education'</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF('Restore Tree'!F9&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F9&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF('Restore Tree'!J69&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J69&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>IF('Restore Tree'!B10&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B10&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'PeopleAvailability'</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF('Restore Tree'!F10&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F10&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF('Restore Tree'!J38&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J38&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>IF('Restore Tree'!B11&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B11&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToCredentials'</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF('Restore Tree'!F11&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F11&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkCredentialsToJobOrders'</v>
+      </c>
+      <c r="I9" t="str">
+        <f>IF('Restore Tree'!J39&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J39&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>IF('Restore Tree'!B12&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B12&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToCompanies'</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF('Restore Tree'!F12&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F12&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f>IF('Restore Tree'!J40&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J40&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>IF('Restore Tree'!B13&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B13&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderClientTeams'</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF('Restore Tree'!F13&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F13&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f>IF('Restore Tree'!J41&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J41&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>IF('Restore Tree'!B14&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B14&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToKnownToUsers'</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF('Restore Tree'!F14&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F14&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f>IF('Restore Tree'!J44&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J44&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>IF('Restore Tree'!B15&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B15&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsCallStatus'</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF('Restore Tree'!F15&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F15&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF('Restore Tree'!J45&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J45&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>IF('Restore Tree'!B16&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B16&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Positions'</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF('Restore Tree'!F16&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F16&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'PositionDetails'</v>
+      </c>
+      <c r="I14" t="str">
+        <f>IF('Restore Tree'!J46&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J46&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>IF('Restore Tree'!B17&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B17&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f>IF('Restore Tree'!F17&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F17&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPositionsToRates'</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF('Restore Tree'!J47&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J47&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" t="str">
-        <f>IF('Restore Tree'!J6&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J6&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>IF('Restore Tree'!B5&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B5&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Resumes'</v>
-      </c>
-      <c r="E5" t="str">
-        <f>IF('Restore Tree'!F5&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F5&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f>IF('Restore Tree'!J38&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J38&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>IF('Restore Tree'!B25&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B25&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EMailAddress'</v>
-      </c>
-      <c r="E6" t="str">
-        <f>IF('Restore Tree'!F25&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F25&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkAddressToDistList'</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF('Restore Tree'!J7&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J7&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>IF('Restore Tree'!B6&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B6&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Notes'</v>
-      </c>
-      <c r="E7" t="str">
-        <f>IF('Restore Tree'!F6&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F6&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f>IF('Restore Tree'!J70&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J70&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>IF('Restore Tree'!B38&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B38&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToNetWork'</v>
-      </c>
-      <c r="E8" t="str">
-        <f>IF('Restore Tree'!F38&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F38&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <f>IF('Restore Tree'!J39&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J39&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>IF('Restore Tree'!B7&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B7&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToSkills'</v>
-      </c>
-      <c r="E9" t="str">
-        <f>IF('Restore Tree'!F7&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F7&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <f>IF('Restore Tree'!J40&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J40&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>IF('Restore Tree'!B70&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B70&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ListsDetails'</v>
-      </c>
-      <c r="E10" t="str">
-        <f>IF('Restore Tree'!F70&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F70&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <f>IF('Restore Tree'!J41&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J41&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>IF('Restore Tree'!B39&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B39&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderConsideredPeople'</v>
-      </c>
-      <c r="E11" t="str">
-        <f>IF('Restore Tree'!F39&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F39&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <f>IF('Restore Tree'!J42&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J42&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>IF('Restore Tree'!B40&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B40&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderInterviewPeople'</v>
-      </c>
-      <c r="E12" t="str">
-        <f>IF('Restore Tree'!F40&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F40&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <f>IF('Restore Tree'!J45&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J45&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>IF('Restore Tree'!B41&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B41&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderInternalInterviewPeople'</v>
-      </c>
-      <c r="E13" t="str">
-        <f>IF('Restore Tree'!F41&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F41&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <f>IF('Restore Tree'!J46&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J46&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>IF('Restore Tree'!B42&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B42&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderPresentedPeople'</v>
-      </c>
-      <c r="E14" t="str">
-        <f>IF('Restore Tree'!F42&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F42&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <f>IF('Restore Tree'!J47&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J47&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>IF('Restore Tree'!B26&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B26&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsClientTeams'</v>
-      </c>
-      <c r="E15" t="str">
-        <f>IF('Restore Tree'!F26&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F26&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkInterviewersToClientInterview'</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="E16" t="str">
+        <f>IF('Restore Tree'!F18&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F18&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkJobOrderToWorksteps'</v>
+      </c>
+      <c r="I16" t="str">
         <f>IF('Restore Tree'!J48&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J48&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>IF('Restore Tree'!B45&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B45&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsBenchmarkCandidates'</v>
-      </c>
-      <c r="E16" t="str">
-        <f>IF('Restore Tree'!F45&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F45&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS'</v>
-      </c>
-      <c r="I16" t="str">
-        <f>IF('Restore Tree'!J49&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J49&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF('Restore Tree'!B46&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B46&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsInternalInterviewLists'</v>
+        <f>IF('Restore Tree'!B18&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B18&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <f>IF('Restore Tree'!F46&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F46&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'InternalInterviews'</v>
+        <f>IF('Restore Tree'!F19&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F19&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Timesheets'</v>
       </c>
       <c r="I17" t="str">
-        <f>IF('Restore Tree'!J50&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J50&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J49&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J49&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF('Restore Tree'!B47&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B47&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B19&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B19&amp;"'", "")</f>
         <v/>
       </c>
       <c r="E18" t="str">
-        <f>IF('Restore Tree'!F47&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F47&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
+        <f>IF('Restore Tree'!F20&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F20&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'PositionExpenses'</v>
       </c>
       <c r="I18" t="str">
-        <f>IF('Restore Tree'!J51&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J51&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J50&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J50&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF('Restore Tree'!B48&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B48&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsPresentedLists'</v>
+        <f>IF('Restore Tree'!B20&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B20&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <f>IF('Restore Tree'!F48&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F48&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
+        <f>IF('Restore Tree'!F21&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F21&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
       </c>
       <c r="I19" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -4717,167 +5530,163 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>IF('Restore Tree'!B49&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B49&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsSources'</v>
+      <c r="A20" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
       <c r="E20" t="str">
-        <f>IF('Restore Tree'!F49&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F49&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS'</v>
+        <f>IF('Restore Tree'!F22&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F22&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'UsersCommissionsSplit'</v>
       </c>
       <c r="I20" t="str">
-        <f>IF('Restore Tree'!J52&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J52&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J51&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J51&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF('Restore Tree'!B50&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B50&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsClientEmployeesLists'</v>
+        <f>IF('Restore Tree'!B21&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B21&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <f>IF('Restore Tree'!F50&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F50&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
+        <f>IF('Restore Tree'!F23&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F23&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkAddressToDistList'</v>
       </c>
       <c r="I21" t="str">
-        <f>IF('Restore Tree'!J55&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J55&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J54&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J54&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>IF('Restore Tree'!B51&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B51&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsShortLists'</v>
-      </c>
-      <c r="E22" t="str">
-        <f>IF('Restore Tree'!F51&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F51&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Interview, CandidateCredentials, CandidateReferences, PCS, PCB, People'</v>
-      </c>
-      <c r="I22" t="str">
-        <f>IF('Restore Tree'!J53&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J53&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="e">
+      <c r="A22" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
         <v>#REF!</v>
       </c>
-      <c r="E23" t="e">
+      <c r="E22" t="str">
+        <f>IF('Restore Tree'!F24&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F24&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkInterviewersToClientInterview'</v>
+      </c>
+      <c r="I22" t="str">
+        <f>IF('Restore Tree'!J52&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J52&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF('Restore Tree'!B23&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B23&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'EMailAddress'</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF('Restore Tree'!F25&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F25&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Interview'</v>
+      </c>
+      <c r="I23" t="str">
+        <f>IF('Restore Tree'!J8&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J8&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>IF('Restore Tree'!B24&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B24&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsClientTeams'</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF('Restore Tree'!F28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F28&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'EmailMsgRecipients'</v>
+      </c>
+      <c r="I24" t="str">
+        <f>IF('Restore Tree'!J32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J32&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF('Restore Tree'!B28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B28&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'EMailArchive'</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF('Restore Tree'!F29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F29&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'EmailMsgAttachments'</v>
+      </c>
+      <c r="I25" t="str">
+        <f>IF('Restore Tree'!J43&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J43&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF('Restore Tree'!B29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B29&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f>IF('Restore Tree'!F30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F30&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToActivityHistory'</v>
+      </c>
+      <c r="I26" t="str">
+        <f>IF('Restore Tree'!J42&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J42&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF('Restore Tree'!B30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B30&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>IF('Restore Tree'!F31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F31&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
+      </c>
+      <c r="I27" t="str">
+        <f>IF('Restore Tree'!J33&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J33&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF('Restore Tree'!B31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B31&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'InternalInterviews'</v>
+      </c>
+      <c r="E28" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
         <v>#REF!</v>
       </c>
-      <c r="I23" t="str">
-        <f>IF('Restore Tree'!J8&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J8&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>IF('Restore Tree'!B52&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B52&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsTargetLists'</v>
-      </c>
-      <c r="E24" t="str">
-        <f>IF('Restore Tree'!F52&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F52&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
-      </c>
-      <c r="I24" t="str">
-        <f>IF('Restore Tree'!J33&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J33&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>IF('Restore Tree'!B55&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B55&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectTargetCompaniesCandidates'</v>
-      </c>
-      <c r="E25" t="str">
-        <f>IF('Restore Tree'!F55&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F55&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
-      </c>
-      <c r="I25" t="str">
-        <f>IF('Restore Tree'!J44&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J44&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>IF('Restore Tree'!B53&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B53&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsFileSearchCandidates'</v>
-      </c>
-      <c r="E26" t="str">
-        <f>IF('Restore Tree'!F53&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F53&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
-      </c>
-      <c r="I26" t="str">
-        <f>IF('Restore Tree'!J43&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J43&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>IF('Restore Tree'!B8&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B8&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Affiliates'</v>
-      </c>
-      <c r="E27" t="str">
-        <f>IF('Restore Tree'!F8&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F8&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I27" t="str">
+      <c r="I28" t="str">
         <f>IF('Restore Tree'!J34&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J34&amp;"'", "")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>IF('Restore Tree'!B33&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B33&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'CandidateCredentials'</v>
-      </c>
-      <c r="E28" t="str">
-        <f>IF('Restore Tree'!F33&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F33&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <f>IF('Restore Tree'!J35&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J35&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>IF('Restore Tree'!B44&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B44&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrdersTargetCompaniesCandidates'</v>
-      </c>
-      <c r="E29" t="str">
-        <f>IF('Restore Tree'!F44&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F44&amp;"'", "")</f>
-        <v/>
+      <c r="A29" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
       <c r="I29" t="str">
+        <f>IF('Restore Tree'!J55&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J55&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF('Restore Tree'!F32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F32&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I30" t="str">
         <f>IF('Restore Tree'!J56&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J56&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>IF('Restore Tree'!B43&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B43&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrdersSources'</v>
-      </c>
-      <c r="E30" t="str">
-        <f>IF('Restore Tree'!F43&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F43&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <f>IF('Restore Tree'!J57&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J57&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF('Restore Tree'!B34&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B34&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'CandidateReferrals'</v>
-      </c>
-      <c r="E31" t="str">
-        <f>IF('Restore Tree'!F34&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F34&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PCS, PCB, People'</v>
+        <f>IF('Restore Tree'!B32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B32&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'CandidateCredentials'</v>
       </c>
       <c r="I31" t="str">
         <f>IF('Restore Tree'!J9&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J9&amp;"'", "")</f>
@@ -4886,26 +5695,26 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF('Restore Tree'!B35&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B35&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'CandidateReferences'</v>
+        <f>IF('Restore Tree'!B33&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B33&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'CandidateReferrals'</v>
       </c>
       <c r="E32" t="str">
-        <f>IF('Restore Tree'!F35&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F35&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F34&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F34&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f>IF('Restore Tree'!J58&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J58&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J57&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J57&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF('Restore Tree'!B56&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B56&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PeopleAppliedTo'</v>
+        <f>IF('Restore Tree'!B34&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B34&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'CandidateReferences'</v>
       </c>
       <c r="E33" t="str">
-        <f>IF('Restore Tree'!F56&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F56&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsCallStatus'</v>
+        <f>IF('Restore Tree'!F35&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F35&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
       </c>
       <c r="I33" t="str">
         <f>IF('Restore Tree'!J10&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J10&amp;"'", "")</f>
@@ -4914,25 +5723,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF('Restore Tree'!B57&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B57&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToTask'</v>
+        <f>IF('Restore Tree'!B35&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B35&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMPContacts'</v>
       </c>
       <c r="E34" t="str">
-        <f>IF('Restore Tree'!F57&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F57&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F36&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f>IF('Restore Tree'!J59&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J59&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J58&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J58&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF('Restore Tree'!B9&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B9&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Education'</v>
+        <f>IF('Restore Tree'!B36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B36&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'PeopleAdditionalNames'</v>
       </c>
       <c r="E35" t="str">
-        <f>IF('Restore Tree'!F9&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F9&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F37&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F37&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I35" t="str">
@@ -4942,12 +5751,12 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF('Restore Tree'!B27&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B27&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EMailArchive'</v>
+        <f>IF('Restore Tree'!B37&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B37&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToNetWork'</v>
       </c>
       <c r="E36" t="str">
-        <f>IF('Restore Tree'!F27&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F27&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EmailMsgRecipients'</v>
+        <f>IF('Restore Tree'!F38&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F38&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I36" t="str">
         <f>IF('Restore Tree'!J12&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J12&amp;"'", "")</f>
@@ -4956,67 +5765,67 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF('Restore Tree'!B28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B28&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B38&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B38&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderConsideredPeople'</v>
       </c>
       <c r="E37" t="str">
-        <f>IF('Restore Tree'!F28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F28&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EmailMsgAttachments'</v>
+        <f>IF('Restore Tree'!F39&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F39&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'UsersCommissionsSplit'</v>
       </c>
       <c r="I37" t="str">
-        <f>IF('Restore Tree'!J54&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J54&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J53&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J53&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF('Restore Tree'!B29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B29&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B39&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B39&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderInterviewPeople'</v>
       </c>
       <c r="E38" t="str">
-        <f>IF('Restore Tree'!F29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F29&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToActivityHistory'</v>
+        <f>IF('Restore Tree'!F40&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F40&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <f>IF('Restore Tree'!J60&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J60&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J59&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J59&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF('Restore Tree'!B58&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B58&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToPackage'</v>
+        <f>IF('Restore Tree'!B40&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B40&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderInternalInterviewPeople'</v>
       </c>
       <c r="E39" t="str">
-        <f>IF('Restore Tree'!F58&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F58&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F41&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F41&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f>IF('Restore Tree'!J61&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J61&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J60&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J60&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF('Restore Tree'!B10&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B10&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PeopleAvailability'</v>
+        <f>IF('Restore Tree'!B41&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B41&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderPresentedPeople'</v>
       </c>
       <c r="E40" t="str">
-        <f>IF('Restore Tree'!F10&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F10&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F42&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F42&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f>IF('Restore Tree'!J62&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J62&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J61&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J61&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF('Restore Tree'!B59&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B59&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToRates'</v>
+        <f>IF('Restore Tree'!B42&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B42&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrdersSources'</v>
       </c>
       <c r="E41" t="str">
-        <f>IF('Restore Tree'!F59&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F59&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F43&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F43&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I41" t="str">
@@ -5026,53 +5835,37 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF('Restore Tree'!B11&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B11&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToCredentials'</v>
-      </c>
-      <c r="E42" t="str">
-        <f>IF('Restore Tree'!F11&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F11&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B43&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B43&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrdersTargetCompaniesCandidates'</v>
       </c>
       <c r="I42" t="str">
-        <f>IF('Restore Tree'!J63&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J63&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J62&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J62&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF('Restore Tree'!B12&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B12&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToCompanies'</v>
-      </c>
-      <c r="E43" t="str">
-        <f>IF('Restore Tree'!F12&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F12&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B44&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B44&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsBenchmarkCandidates'</v>
       </c>
       <c r="I43" t="str">
-        <f>IF('Restore Tree'!J64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J64&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J63&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J63&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF('Restore Tree'!B54&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B54&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LastProjectActivity'</v>
-      </c>
-      <c r="E44" t="str">
-        <f>IF('Restore Tree'!F54&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F54&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B45&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B45&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsInternalInterviewLists'</v>
       </c>
       <c r="I44" t="str">
-        <f>IF('Restore Tree'!J65&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J65&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J64&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF('Restore Tree'!B60&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B60&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsCandidateBlocks'</v>
-      </c>
-      <c r="E45" t="str">
-        <f>IF('Restore Tree'!F60&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F60&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B46&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B46&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I45" t="str">
@@ -5082,40 +5875,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF('Restore Tree'!B61&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B61&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EventSessionsInvitees'</v>
-      </c>
-      <c r="E46" t="str">
-        <f>IF('Restore Tree'!F61&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F61&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B47&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B47&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsPresentedLists'</v>
       </c>
       <c r="I46" t="str">
-        <f>IF('Restore Tree'!J66&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J66&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J65&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J65&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF('Restore Tree'!B62&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B62&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EventSessionVendors'</v>
-      </c>
-      <c r="E47" t="str">
-        <f>IF('Restore Tree'!F62&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F62&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B48&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B48&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsSources'</v>
       </c>
       <c r="I47" t="str">
-        <f>IF('Restore Tree'!J37&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J37&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J36&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF('Restore Tree'!B13&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B13&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderClientTeams'</v>
-      </c>
-      <c r="E48" t="str">
-        <f>IF('Restore Tree'!F13&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F13&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B49&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B49&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsClientEmployeesLists'</v>
       </c>
       <c r="I48" t="str">
         <f>IF('Restore Tree'!J15&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J15&amp;"'", "")</f>
@@ -5124,152 +5905,120 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF('Restore Tree'!B36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B36&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMPContacts'</v>
-      </c>
-      <c r="E49" t="str">
-        <f>IF('Restore Tree'!F36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F36&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
+        <f>IF('Restore Tree'!B50&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B50&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsShortLists'</v>
       </c>
       <c r="I49" t="str">
-        <f>IF('Restore Tree'!J68&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J68&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J67&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF('Restore Tree'!B63&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B63&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMProjects'</v>
-      </c>
-      <c r="E50" t="str">
-        <f>IF('Restore Tree'!F63&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F63&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B51&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B51&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsTargetLists'</v>
       </c>
       <c r="I50" t="str">
-        <f>IF('Restore Tree'!J71&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J71&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J70&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J70&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF('Restore Tree'!B64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B64&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToMProjects'</v>
-      </c>
-      <c r="E51" t="str">
-        <f>IF('Restore Tree'!F64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F64&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMPContacts'</v>
+        <f>IF('Restore Tree'!B52&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B52&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsFileSearchCandidates'</v>
       </c>
       <c r="I51" t="str">
-        <f>IF('Restore Tree'!J72&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J72&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J71&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J71&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF('Restore Tree'!B65&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B65&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToOpportunities'</v>
-      </c>
-      <c r="E52" t="str">
-        <f>IF('Restore Tree'!F65&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F65&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I52" t="str">
-        <f>IF('Restore Tree'!J73&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J73&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B53&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B53&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LastProjectActivity'</v>
+      </c>
+      <c r="I52" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF('Restore Tree'!B14&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B14&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToKnownToUsers'</v>
-      </c>
-      <c r="E53" t="str">
-        <f>IF('Restore Tree'!F14&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F14&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B54&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B54&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectTargetCompaniesCandidates'</v>
       </c>
       <c r="I53" t="str">
-        <f>IF('Restore Tree'!J74&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J74&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J72&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J72&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF('Restore Tree'!B66&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B66&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'MProjectCompaniesContacts'</v>
-      </c>
-      <c r="E54" t="str">
-        <f>IF('Restore Tree'!F66&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F66&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B55&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B55&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'PeopleAppliedTo'</v>
       </c>
       <c r="I54" t="str">
-        <f>IF('Restore Tree'!J75&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J75&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J73&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J73&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF('Restore Tree'!B37&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B37&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PeopleAdditionalNames'</v>
-      </c>
-      <c r="E55" t="str">
-        <f>IF('Restore Tree'!F37&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F37&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B56&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B56&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToTask'</v>
       </c>
       <c r="I55" t="str">
-        <f>IF('Restore Tree'!J76&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J76&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J74&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J74&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF('Restore Tree'!B15&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B15&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsCallStatus'</v>
-      </c>
-      <c r="E56" t="str">
-        <f>IF('Restore Tree'!F15&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F15&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B57&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B57&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToPackage'</v>
       </c>
       <c r="I56" t="str">
-        <f>IF('Restore Tree'!J77&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J77&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J75&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J75&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF('Restore Tree'!B30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B30&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'InternalInterviews'</v>
+        <f>IF('Restore Tree'!B58&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B58&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkPeopleToRates'</v>
       </c>
       <c r="E57" t="str">
-        <f>IF('Restore Tree'!F30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F30&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
+        <f>IF('Restore Tree'!F59&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F59&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I57" t="str">
-        <f>IF('Restore Tree'!J78&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J78&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J76&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J76&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF('Restore Tree'!B31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B31&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B59&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B59&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsCandidateBlocks'</v>
       </c>
       <c r="E58" t="str">
-        <f>IF('Restore Tree'!F31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F31&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkInternalInterviewsToResults'</v>
+        <f>IF('Restore Tree'!F60&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F60&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I58" t="str">
-        <f>IF('Restore Tree'!J79&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J79&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J77&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J77&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF('Restore Tree'!B32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B32&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B60&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B60&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'EventSessionsInvitees'</v>
       </c>
       <c r="E59" t="str">
-        <f>IF('Restore Tree'!F32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F32&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkSkillsToInternalInterview'</v>
+        <f>IF('Restore Tree'!F61&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F61&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I59" t="str">
         <f>IF('Restore Tree'!J16&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J16&amp;"'", "")</f>
@@ -5278,12 +6027,8 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF('Restore Tree'!B68&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B68&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'GDPRLog'</v>
-      </c>
-      <c r="E60" t="str">
-        <f>IF('Restore Tree'!F68&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F68&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B61&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B61&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'EventSessionVendors'</v>
       </c>
       <c r="I60" t="str">
         <f>IF('Restore Tree'!J17&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J17&amp;"'", "")</f>
@@ -5292,123 +6037,87 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF('Restore Tree'!B71&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B71&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E61" t="str">
-        <f>IF('Restore Tree'!F71&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F71&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I61" t="str">
-        <f>IF('Restore Tree'!J18&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J18&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B62&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B62&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMProjects'</v>
+      </c>
+      <c r="I61" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF('Restore Tree'!B72&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B72&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToActivityHistory'</v>
-      </c>
-      <c r="E62" t="str">
-        <f>IF('Restore Tree'!F72&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F72&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'People'</v>
+        <f>IF('Restore Tree'!B63&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B63&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToMProjects'</v>
       </c>
       <c r="I62" t="str">
-        <f>IF('Restore Tree'!J19&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J19&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J18&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J18&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF('Restore Tree'!B73&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B73&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E63" t="str">
-        <f>IF('Restore Tree'!F73&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F73&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LastProjectActivity'</v>
+        <f>IF('Restore Tree'!B64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B64&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToOpportunities'</v>
       </c>
       <c r="I63" t="str">
-        <f>IF('Restore Tree'!J20&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J20&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J19&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J19&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF('Restore Tree'!B74&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B74&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E64" t="str">
-        <f>IF('Restore Tree'!F74&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F74&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'SearchContactRecord'</v>
+        <f>IF('Restore Tree'!B65&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B65&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'MProjectCompaniesContacts'</v>
       </c>
       <c r="I64" t="str">
-        <f>IF('Restore Tree'!J21&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J21&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J20&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J20&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF('Restore Tree'!B75&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B75&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E65" t="str">
-        <f>IF('Restore Tree'!F75&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F75&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'MarketingCallReport'</v>
-      </c>
-      <c r="I65" t="str">
-        <f>IF('Restore Tree'!J22&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J22&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B66&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B66&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Addresses'</v>
+      </c>
+      <c r="I65" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF('Restore Tree'!B76&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B76&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E66" t="str">
-        <f>IF('Restore Tree'!F76&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F76&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Companies'</v>
+        <f>IF('Restore Tree'!B67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B67&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'GDPRLog'</v>
       </c>
       <c r="I66" t="str">
-        <f>IF('Restore Tree'!J23&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J23&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J21&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J21&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF('Restore Tree'!B77&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B77&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToDocument'</v>
-      </c>
-      <c r="E67" t="str">
-        <f>IF('Restore Tree'!F77&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F77&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="I67" t="str">
-        <f>IF('Restore Tree'!J24&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J24&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B68&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B68&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I67" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF('Restore Tree'!B78&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B78&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToTask'</v>
-      </c>
-      <c r="E68" t="str">
-        <f>IF('Restore Tree'!F78&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F78&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B69&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B69&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'ListsDetails'</v>
       </c>
       <c r="I68" t="str">
-        <f>IF('Restore Tree'!J67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J67&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J66&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J66&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF('Restore Tree'!B79&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B79&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E69" t="str">
-        <f>IF('Restore Tree'!F79&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F79&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B70&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B70&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I69" t="e">
@@ -5418,96 +6127,68 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF('Restore Tree'!B16&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B16&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Positions'</v>
-      </c>
-      <c r="E70" t="str">
-        <f>IF('Restore Tree'!F16&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F16&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PositionDetails'</v>
+        <f>IF('Restore Tree'!B71&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B71&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToActivityHistory'</v>
       </c>
       <c r="I70" t="str">
-        <f>IF('Restore Tree'!J25&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J25&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J23&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J23&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>IF('Restore Tree'!B17&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B17&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E71" t="str">
-        <f>IF('Restore Tree'!F17&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F17&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkPositionsToRates'</v>
+      <c r="A71" t="e">
+        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
+        <v>#REF!</v>
       </c>
       <c r="I71" t="str">
-        <f>IF('Restore Tree'!J26&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J26&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J24&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J24&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF('Restore Tree'!B18&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B18&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E72" t="str">
-        <f>IF('Restore Tree'!F18&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F18&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkJobOrderScheduleToPosition'</v>
+        <f>IF('Restore Tree'!B72&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B72&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I72" t="str">
-        <f>IF('Restore Tree'!J27&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J27&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J28&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF('Restore Tree'!B19&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B19&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E73" t="str">
-        <f>IF('Restore Tree'!F19&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F19&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkJobOrderToWorksteps'</v>
+        <f>IF('Restore Tree'!B73&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B73&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I73" t="str">
-        <f>IF('Restore Tree'!J28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J28&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J29&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF('Restore Tree'!B20&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B20&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E74" t="str">
-        <f>IF('Restore Tree'!F20&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F20&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Timesheets'</v>
+        <f>IF('Restore Tree'!B74&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B74&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I74" t="str">
-        <f>IF('Restore Tree'!J29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J29&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J30&amp;"'", "")</f>
         <v>exec sp_Drew_TableInfo @TableName = 'not relevant'</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF('Restore Tree'!B21&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B21&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E75" t="str">
-        <f>IF('Restore Tree'!F21&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F21&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'PositionExpenses'</v>
+        <f>IF('Restore Tree'!B75&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B75&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToDocument'</v>
       </c>
       <c r="I75" t="str">
-        <f>IF('Restore Tree'!J36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J36&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J35&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J35&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF('Restore Tree'!B22&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B22&amp;"'", "")</f>
-        <v/>
-      </c>
-      <c r="E76" t="str">
-        <f>IF('Restore Tree'!F22&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F22&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'JobOrderPositionTeams'</v>
+        <f>IF('Restore Tree'!B76&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B76&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToTask'</v>
       </c>
       <c r="I76" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5516,12 +6197,12 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF('Restore Tree'!B23&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B23&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B77&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B77&amp;"'", "")</f>
         <v/>
       </c>
       <c r="E77" t="str">
-        <f>IF('Restore Tree'!F23&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F23&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
+        <f>IF('Restore Tree'!F79&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F79&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I77" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5530,12 +6211,12 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF('Restore Tree'!B24&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B24&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B78&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B78&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Assignments'</v>
       </c>
       <c r="E78" t="str">
-        <f>IF('Restore Tree'!F24&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F24&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsCallStatus'</v>
+        <f>IF('Restore Tree'!F80&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F80&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I78" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5544,54 +6225,54 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF('Restore Tree'!B67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B67&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Addresses'</v>
+        <f>IF('Restore Tree'!B79&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B79&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Assignments'</v>
       </c>
       <c r="E79" t="str">
-        <f>IF('Restore Tree'!F67&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F67&amp;"'", "")</f>
+        <f>IF('Restore Tree'!F81&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F81&amp;"'", "")</f>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f>IF('Restore Tree'!J30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J30&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J31&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="e">
+      <c r="A80" t="str">
+        <f>IF('Restore Tree'!B80&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B80&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrders'</v>
+      </c>
+      <c r="E80" t="str">
+        <f>IF('Restore Tree'!F82&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F82&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I80" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
         <v>#REF!</v>
       </c>
-      <c r="E80" t="e">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF('Restore Tree'!B81&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B81&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrders'</v>
+      </c>
+      <c r="E81" t="str">
+        <f>IF('Restore Tree'!F83&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F83&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I81" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
         <v>#REF!</v>
       </c>
-      <c r="I80" t="str">
-        <f>IF('Restore Tree'!J31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J31&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f>IF('Restore Tree'!B25&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B25&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EMailAddress'</v>
-      </c>
-      <c r="E81" t="str">
-        <f>IF('Restore Tree'!F25&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F25&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkAddressToDistList'</v>
-      </c>
-      <c r="I81" t="str">
-        <f>IF('Restore Tree'!J32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J32&amp;"'", "")</f>
-        <v/>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF('Restore Tree'!B26&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B26&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'ProjectsClientTeams'</v>
+        <f>IF('Restore Tree'!B82&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B82&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrders'</v>
       </c>
       <c r="E82" t="str">
-        <f>IF('Restore Tree'!F26&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F26&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkInterviewersToClientInterview'</v>
+        <f>IF('Restore Tree'!F84&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F84&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I82" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5600,12 +6281,12 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF('Restore Tree'!B27&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B27&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EMailArchive'</v>
+        <f>IF('Restore Tree'!B83&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B83&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'JobOrders'</v>
       </c>
       <c r="E83" t="str">
-        <f>IF('Restore Tree'!F27&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F27&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EmailMsgRecipients'</v>
+        <f>IF('Restore Tree'!F85&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F85&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I83" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5614,12 +6295,12 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF('Restore Tree'!B28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B28&amp;"'", "")</f>
-        <v/>
+        <f>IF('Restore Tree'!B84&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B84&amp;"'", "")</f>
+        <v>exec sp_Drew_TableInfo @TableName = 'Projects'</v>
       </c>
       <c r="E84" t="str">
-        <f>IF('Restore Tree'!F28&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F28&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'EmailMsgAttachments'</v>
+        <f>IF('Restore Tree'!F86&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F86&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I84" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5628,12 +6309,12 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF('Restore Tree'!B29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B29&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B85&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B85&amp;"'", "")</f>
         <v/>
       </c>
       <c r="E85" t="str">
-        <f>IF('Restore Tree'!F29&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F29&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkObjectToActivityHistory'</v>
+        <f>IF('Restore Tree'!F87&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F87&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I85" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5642,12 +6323,12 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF('Restore Tree'!B36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B36&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMPContacts'</v>
+        <f>IF('Restore Tree'!B86&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B86&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="E86" t="str">
-        <f>IF('Restore Tree'!F36&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F36&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
+        <f>IF('Restore Tree'!F88&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F88&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I86" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5656,12 +6337,12 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF('Restore Tree'!B64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B64&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkContactsToMProjects'</v>
+        <f>IF('Restore Tree'!B92&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B92&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="E87" t="str">
-        <f>IF('Restore Tree'!F64&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F64&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkCandidatesToMPContacts'</v>
+        <f>IF('Restore Tree'!F89&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F89&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I87" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5670,12 +6351,12 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF('Restore Tree'!B30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B30&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'InternalInterviews'</v>
+        <f>IF('Restore Tree'!B93&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B93&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="E88" t="str">
-        <f>IF('Restore Tree'!F30&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F30&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'Task'</v>
+        <f>IF('Restore Tree'!F90&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F90&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I88" t="e">
         <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
@@ -5684,201 +6365,235 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF('Restore Tree'!B31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B31&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B94&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B94&amp;"'", "")</f>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f>IF('Restore Tree'!F31&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F31&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkInternalInterviewsToResults'</v>
-      </c>
-      <c r="I89" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+        <f>IF('Restore Tree'!F91&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F91&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <f>IF('Restore Tree'!J78&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J78&amp;"'", "")</f>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF('Restore Tree'!B32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B32&amp;"'", "")</f>
+        <f>IF('Restore Tree'!B95&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B95&amp;"'", "")</f>
         <v/>
       </c>
       <c r="E90" t="str">
-        <f>IF('Restore Tree'!F32&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F32&amp;"'", "")</f>
-        <v>exec sp_Drew_TableInfo @TableName = 'LinkSkillsToInternalInterview'</v>
-      </c>
-      <c r="I90" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+        <f>IF('Restore Tree'!F92&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F92&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <f>IF('Restore Tree'!J79&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J79&amp;"'", "")</f>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E91" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I91" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+      <c r="A91" t="str">
+        <f>IF('Restore Tree'!B96&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B96&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E91" t="str">
+        <f>IF('Restore Tree'!F93&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F93&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <f>IF('Restore Tree'!J80&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J80&amp;"'", "")</f>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E92" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I92" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+      <c r="A92" t="str">
+        <f>IF('Restore Tree'!B97&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B97&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <f>IF('Restore Tree'!F94&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F94&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <f>IF('Restore Tree'!J81&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J81&amp;"'", "")</f>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E93" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I93" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+      <c r="A93" t="str">
+        <f>IF('Restore Tree'!B98&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B98&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E93" t="str">
+        <f>IF('Restore Tree'!F95&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F95&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <f>IF('Restore Tree'!J82&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J82&amp;"'", "")</f>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E94" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+      <c r="A94" t="str">
+        <f>IF('Restore Tree'!B99&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B99&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E94" t="str">
+        <f>IF('Restore Tree'!F96&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F96&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I94" t="str">
-        <f>IF('Restore Tree'!J80&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J80&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J83&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J83&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E95" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+      <c r="A95" t="str">
+        <f>IF('Restore Tree'!B100&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B100&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E95" t="str">
+        <f>IF('Restore Tree'!F97&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F97&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I95" t="str">
-        <f>IF('Restore Tree'!J81&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J81&amp;"'", "")</f>
+        <f>IF('Restore Tree'!J84&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J84&amp;"'", "")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E96" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+      <c r="A96" t="str">
+        <f>IF('Restore Tree'!B101&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B101&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E96" t="str">
+        <f>IF('Restore Tree'!F98&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F98&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I96" t="str">
-        <f>IF('Restore Tree'!J82&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J82&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E97" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+        <f>IF('Restore Tree'!J85&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J85&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>IF('Restore Tree'!B102&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B102&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E97" t="str">
+        <f>IF('Restore Tree'!F99&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F99&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I97" t="str">
-        <f>IF('Restore Tree'!J83&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J83&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E98" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+        <f>IF('Restore Tree'!J86&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J86&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>IF('Restore Tree'!B103&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B103&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <f>IF('Restore Tree'!F100&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F100&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I98" t="str">
-        <f>IF('Restore Tree'!J84&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J84&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E99" t="e">
-        <f>IF('Restore Tree'!#REF!&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!#REF!&amp;"'", "")</f>
-        <v>#REF!</v>
+        <f>IF('Restore Tree'!J87&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J87&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>IF('Restore Tree'!B104&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B104&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <f>IF('Restore Tree'!F101&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F101&amp;"'", "")</f>
+        <v/>
       </c>
       <c r="I99" t="str">
-        <f>IF('Restore Tree'!J85&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J85&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
+        <f>IF('Restore Tree'!J89&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J89&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>IF('Restore Tree'!B105&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B105&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E100" t="str">
+        <f>IF('Restore Tree'!F102&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F102&amp;"'", "")</f>
+        <v/>
+      </c>
       <c r="I100" t="str">
-        <f>IF('Restore Tree'!J86&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J86&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.25">
+        <f>IF('Restore Tree'!J90&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J90&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>IF('Restore Tree'!B106&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!B106&amp;"'", "")</f>
+        <v/>
+      </c>
+      <c r="E101" t="str">
+        <f>IF('Restore Tree'!F103&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F103&amp;"'", "")</f>
+        <v/>
+      </c>
       <c r="I101" t="str">
-        <f>IF('Restore Tree'!J87&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J87&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.25">
+        <f>IF('Restore Tree'!J91&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J91&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f>IF('Restore Tree'!F107&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F107&amp;"'", "")</f>
+        <v/>
+      </c>
       <c r="I102" t="str">
-        <f>IF('Restore Tree'!J88&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J88&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.25">
+        <f>IF('Restore Tree'!J92&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J92&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f>IF('Restore Tree'!F108&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F108&amp;"'", "")</f>
+        <v/>
+      </c>
       <c r="I103" t="str">
-        <f>IF('Restore Tree'!J89&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J89&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.25">
+        <f>IF('Restore Tree'!J93&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J93&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f>IF('Restore Tree'!F109&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F109&amp;"'", "")</f>
+        <v/>
+      </c>
       <c r="I104" t="str">
-        <f>IF('Restore Tree'!J91&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J91&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
+        <f>IF('Restore Tree'!J94&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J94&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <f>IF('Restore Tree'!F110&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F110&amp;"'", "")</f>
+        <v/>
+      </c>
       <c r="I105" t="str">
-        <f>IF('Restore Tree'!J92&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J92&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I106" t="str">
-        <f>IF('Restore Tree'!J93&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J93&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I107" t="str">
-        <f>IF('Restore Tree'!J94&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J94&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I108" t="str">
         <f>IF('Restore Tree'!J95&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J95&amp;"'", "")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I109" t="str">
-        <f>IF('Restore Tree'!J96&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J96&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I110" t="str">
-        <f>IF('Restore Tree'!J97&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!J97&amp;"'", "")</f>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <f>IF('Restore Tree'!F111&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F111&amp;"'", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <f>IF('Restore Tree'!F112&gt;"","exec sp_Drew_TableInfo @TableName = '"&amp;'Restore Tree'!F112&amp;"'", "")</f>
         <v/>
       </c>
     </row>
@@ -5903,7 +6618,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="5" t="str">
@@ -5914,7 +6629,7 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -5925,7 +6640,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5" t="str">
@@ -5936,7 +6651,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5" t="str">
@@ -5947,7 +6662,7 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="5" t="str">
@@ -5958,7 +6673,7 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="5" t="str">
@@ -5969,7 +6684,7 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="5" t="str">
@@ -5980,7 +6695,7 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="5" t="str">
@@ -5991,7 +6706,7 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="str">
@@ -6002,7 +6717,7 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="5" t="str">
@@ -6013,7 +6728,7 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="5" t="str">
@@ -6024,7 +6739,7 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="5" t="str">
@@ -6035,7 +6750,7 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="5" t="str">
@@ -6046,7 +6761,7 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="5" t="str">
@@ -6057,7 +6772,7 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5" t="str">
@@ -6068,7 +6783,7 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="5" t="str">
@@ -6079,8 +6794,8 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>130</v>
+      <c r="A17" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6090,7 +6805,7 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="5" t="str">
@@ -6103,7 +6818,7 @@
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="5" t="str">
@@ -6111,12 +6826,12 @@
         <v>('CandidateReferrals', N'WHERE PeopleID = @MainRecordID'),</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="5" t="str">
@@ -6124,12 +6839,12 @@
         <v>('CandidateReferences', N'WHERE PeopleID = @MainRecordID'),</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="str">
@@ -6137,12 +6852,12 @@
         <v>('LinkCandidatesToMPContacts', N'WHERE PeopleID = @MainRecordID'),</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="5" t="str">
@@ -6153,7 +6868,7 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="5" t="str">
@@ -6166,7 +6881,7 @@
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="5" t="str">
@@ -6177,7 +6892,7 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="5" t="str">
@@ -6188,7 +6903,7 @@
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="5" t="str">
@@ -6199,7 +6914,7 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="5" t="str">
@@ -6210,7 +6925,7 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="5" t="str">
@@ -6221,7 +6936,7 @@
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="5" t="str">
@@ -6232,7 +6947,7 @@
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="5" t="str">
@@ -6243,7 +6958,7 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="5" t="str">
@@ -6254,7 +6969,7 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="5" t="str">
@@ -6265,7 +6980,7 @@
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="5" t="str">
@@ -6276,7 +6991,7 @@
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="5" t="str">
@@ -6287,7 +7002,7 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="5" t="str">
@@ -6298,7 +7013,7 @@
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="5" t="str">
@@ -6309,7 +7024,7 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="5" t="str">
@@ -6320,7 +7035,7 @@
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="5" t="str">
@@ -6331,7 +7046,7 @@
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="5" t="str">
@@ -6342,7 +7057,7 @@
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="5" t="str">
@@ -6353,7 +7068,7 @@
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="5" t="str">
@@ -6364,7 +7079,7 @@
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="5" t="str">
@@ -6375,7 +7090,7 @@
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="5" t="str">
@@ -6386,7 +7101,7 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="5" t="str">
@@ -6397,7 +7112,7 @@
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="5" t="str">
@@ -6408,7 +7123,7 @@
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="5" t="str">
@@ -6419,7 +7134,7 @@
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="5" t="str">
@@ -6430,7 +7145,7 @@
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="5" t="str">
@@ -6441,7 +7156,7 @@
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="5" t="str">
@@ -6452,7 +7167,7 @@
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="5" t="str">
@@ -6463,7 +7178,7 @@
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="5" t="str">
@@ -6471,14 +7186,14 @@
         <v>('Addresses', N'WHERE PeopleID = @MainRecordID'),</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="5" t="str">
@@ -6489,7 +7204,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="5" t="str">
@@ -6504,7 +7219,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="5" t="str">
@@ -6519,7 +7234,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="5" t="str">
@@ -6534,7 +7249,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="5" t="str">
@@ -6549,7 +7264,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B57" s="5" t="str">
@@ -6562,7 +7277,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="5" t="str">
@@ -6575,7 +7290,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="5" t="str">
@@ -6588,7 +7303,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B60" s="5" t="str">
@@ -6601,7 +7316,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="5" t="str">
@@ -6614,7 +7329,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B62" s="5" t="str">
@@ -6627,7 +7342,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="5" t="str">
@@ -6659,10 +7374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="5"/>
@@ -6674,14 +7389,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -6691,14 +7406,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -6708,14 +7423,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -6725,10 +7440,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="5"/>
@@ -6740,10 +7455,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="5"/>
@@ -6755,10 +7470,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="5"/>
@@ -6770,10 +7485,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
@@ -6787,11 +7502,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>133</v>
+      <c r="B9" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -6799,11 +7514,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>131</v>
+      <c r="B10" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -6811,11 +7526,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>123</v>
+      <c r="B11" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -6823,11 +7538,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>139</v>
+      <c r="B12" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -6835,10 +7550,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="K13" t="str">
@@ -6847,10 +7562,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="K14" t="str">
@@ -6859,11 +7574,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>137</v>
+      <c r="A15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -6871,11 +7586,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>138</v>
+      <c r="A16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -6883,18 +7598,18 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>

--- a/Med People/Restore Tree.xlsx
+++ b/Med People/Restore Tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\SQL Server Management Studio\Restore Scripts\Med People\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED081A-6327-4950-ABE0-1AD29EFA7F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFA9635-789A-439C-AD75-E263A452C680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restore Tree" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="255">
   <si>
     <t>LinkObjectToActivityHistory</t>
   </si>
@@ -511,9 +511,6 @@
     <t>04 LinkPeopleToSkills</t>
   </si>
   <si>
-    <t>05 Affiliates</t>
-  </si>
-  <si>
     <t>06 Education</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>10 JobOrderClientTeams</t>
   </si>
   <si>
-    <t>11 LinkPeopleToKnownToUsers</t>
-  </si>
-  <si>
     <t>12 ProjectsCallStatus</t>
   </si>
   <si>
@@ -541,12 +535,6 @@
     <t>14 EMailAddress</t>
   </si>
   <si>
-    <t>15 ProjectsClientTeams</t>
-  </si>
-  <si>
-    <t>17 InternalInterviews</t>
-  </si>
-  <si>
     <t>18 CandidateCredentials</t>
   </si>
   <si>
@@ -559,9 +547,6 @@
     <t>21 LinkCandidatesToMPContacts</t>
   </si>
   <si>
-    <t>22 PeopleAdditionalNames</t>
-  </si>
-  <si>
     <t>23 LinkPeopleToNetWork</t>
   </si>
   <si>
@@ -577,12 +562,6 @@
     <t>27 JobOrderPresentedPeople</t>
   </si>
   <si>
-    <t>28 JobOrdersSources</t>
-  </si>
-  <si>
-    <t>29 JobOrdersTargetCompaniesCandidates</t>
-  </si>
-  <si>
     <t>30 ProjectsBenchmarkCandidates</t>
   </si>
   <si>
@@ -595,9 +574,6 @@
     <t>33 ProjectsSources</t>
   </si>
   <si>
-    <t>34 ProjectsClientEmployeesLists</t>
-  </si>
-  <si>
     <t>35 ProjectsShortLists</t>
   </si>
   <si>
@@ -607,45 +583,21 @@
     <t>37 ProjectsFileSearchCandidates</t>
   </si>
   <si>
-    <t>38 LastProjectActivity</t>
-  </si>
-  <si>
-    <t>39 ProjectTargetCompaniesCandidates</t>
-  </si>
-  <si>
     <t>40 PeopleAppliedTo</t>
   </si>
   <si>
     <t>41 LinkContactsToTask</t>
   </si>
   <si>
-    <t>42 LinkPeopleToPackage</t>
-  </si>
-  <si>
     <t>43 LinkPeopleToRates</t>
   </si>
   <si>
-    <t>44 ProjectsCandidateBlocks</t>
-  </si>
-  <si>
-    <t>45 EventSessionsInvitees</t>
-  </si>
-  <si>
-    <t>46 EventSessionVendors</t>
-  </si>
-  <si>
     <t>47 LinkCandidatesToMProjects</t>
   </si>
   <si>
     <t>48 LinkContactsToMProjects</t>
   </si>
   <si>
-    <t>49 LinkContactsToOpportunities</t>
-  </si>
-  <si>
-    <t>50 MProjectCompaniesContacts</t>
-  </si>
-  <si>
     <t>51 Addresses</t>
   </si>
   <si>
@@ -658,12 +610,6 @@
     <t>55 LinkObjectToActivityHistory</t>
   </si>
   <si>
-    <t>56 Assignments</t>
-  </si>
-  <si>
-    <t>57 Assignments</t>
-  </si>
-  <si>
     <t>58 JobOrders</t>
   </si>
   <si>
@@ -676,42 +622,6 @@
     <t>61 JobOrders</t>
   </si>
   <si>
-    <t>62 Projects</t>
-  </si>
-  <si>
-    <t>63 PositionDetails</t>
-  </si>
-  <si>
-    <t>64 LinkPositionsToRates</t>
-  </si>
-  <si>
-    <t>65 LinkJobOrderScheduleToPosition</t>
-  </si>
-  <si>
-    <t>67 Timesheets</t>
-  </si>
-  <si>
-    <t>68 PositionExpenses</t>
-  </si>
-  <si>
-    <t>69 JobOrderPositionTeams</t>
-  </si>
-  <si>
-    <t>70 Task</t>
-  </si>
-  <si>
-    <t>72 LinkInterviewersToClientInterview</t>
-  </si>
-  <si>
-    <t>76 Task</t>
-  </si>
-  <si>
-    <t>77 LinkInternalInterviewsToResults</t>
-  </si>
-  <si>
-    <t>78 LinkSkillsToInternalInterview</t>
-  </si>
-  <si>
     <t>via ProjectsInternalInterviewLists where Done = 0</t>
   </si>
   <si>
@@ -745,9 +655,6 @@
     <t>NESTED - People.HomeAddressesID, BusinessAddressesID, AlternativeAddressesID. MED CUSTOM</t>
   </si>
   <si>
-    <t>MailingAddresses, LinkAddresstoMCRContract, Positions update</t>
-  </si>
-  <si>
     <t>Interview, CandidateCredentials, CandidateReferences</t>
   </si>
   <si>
@@ -890,13 +797,19 @@
   </si>
   <si>
     <t>TaskID = TaskID</t>
+  </si>
+  <si>
+    <t>63 LinkCredentialsToJobOrders</t>
+  </si>
+  <si>
+    <t>covered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +826,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1050,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1079,6 +1006,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,9 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1367,7 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1449,7 +1383,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1459,7 +1393,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1469,33 +1403,33 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>242</v>
+      <c r="F11" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1505,12 +1439,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -1552,15 +1486,15 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="21" t="s">
-        <v>237</v>
+      <c r="F22" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="21" t="s">
@@ -1574,10 +1508,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="31" t="s">
         <v>128</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -1592,40 +1526,43 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
-      <c r="F25" s="21" t="s">
-        <v>239</v>
+      <c r="F25" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="21" t="s">
-        <v>237</v>
+      <c r="J25" s="32" t="s">
+        <v>206</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="29" t="s">
         <v>128</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>245</v>
+        <v>214</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="32" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>145</v>
@@ -1663,7 +1600,7 @@
         <v>127</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>6</v>
@@ -1676,7 +1613,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -1684,7 +1621,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1698,7 +1635,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1706,7 +1643,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -1731,7 +1668,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1742,7 +1679,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1750,21 +1687,21 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>237</v>
+      <c r="F39" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1772,7 +1709,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1796,7 +1733,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1810,7 +1747,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1832,7 +1769,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1846,7 +1783,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -1860,7 +1797,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -1874,21 +1811,21 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -1902,7 +1839,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -1916,7 +1853,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -1924,7 +1861,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -1938,7 +1875,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1952,7 +1889,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -1968,7 +1905,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -2000,7 +1937,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -2008,7 +1945,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2030,7 +1967,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2038,14 +1975,11 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2067,7 +2001,7 @@
       <c r="A69" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -2089,7 +2023,7 @@
       <c r="A71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -2142,7 +2076,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -2198,7 +2132,7 @@
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E80" s="11" t="s">
@@ -2208,7 +2142,7 @@
       <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E81" s="17" t="s">
@@ -2218,7 +2152,7 @@
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E82" s="17" t="s">
@@ -2228,7 +2162,7 @@
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E83" s="17" t="s">
@@ -2238,7 +2172,7 @@
       <c r="J83" s="12"/>
     </row>
     <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="25" t="s">
         <v>86</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -2297,7 +2231,7 @@
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,10 +2243,10 @@
   <sheetData>
     <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
         <v>107</v>
@@ -2322,42 +2256,42 @@
         <v>PositionDetails</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="L1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M1" t="s">
         <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O1" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q1" t="s">
         <v>31</v>
       </c>
       <c r="R1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>108</v>
@@ -2367,42 +2301,42 @@
         <v>LinkPositionsToRates</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M2" t="s">
         <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>109</v>
@@ -2412,42 +2346,42 @@
         <v>#N/A</v>
       </c>
       <c r="I3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K3" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M3" t="s">
         <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O3" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q3" t="s">
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>110</v>
@@ -2457,42 +2391,42 @@
         <v>LinkJobOrderToWorksteps</v>
       </c>
       <c r="I4" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M4" t="s">
         <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O4" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q4" t="s">
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
         <v>111</v>
@@ -2502,42 +2436,42 @@
         <v>Timesheets</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K5" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M5" t="s">
         <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O5" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q5" t="s">
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
         <v>112</v>
@@ -2547,42 +2481,42 @@
         <v>PositionExpenses</v>
       </c>
       <c r="I6" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K6" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="L6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M6" t="s">
         <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
         <v>113</v>
@@ -2592,42 +2526,42 @@
         <v>#N/A</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="J7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M7" t="s">
         <v>83</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q7" t="s">
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
         <v>130</v>
@@ -2637,42 +2571,42 @@
         <v>LinkAddressToDistList</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K8" t="s">
         <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M8" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="N8" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="P8" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q8" t="s">
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
         <v>130</v>
@@ -2682,42 +2616,42 @@
         <v>LinkAddressToDistList</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K9" t="s">
         <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="N9" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q9" t="s">
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
@@ -2727,42 +2661,42 @@
         <v>EmailMsgRecipients</v>
       </c>
       <c r="I10" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K10" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="L10" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M10" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="N10" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O10" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
         <v>136</v>
@@ -2772,42 +2706,42 @@
         <v>EmailMsgAttachments</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="J11" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M11" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="N11" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O11" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q11" t="s">
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -2817,48 +2751,48 @@
         <v>LinkObjectToActivityHistory</v>
       </c>
       <c r="I12" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="J12" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M12" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="N12" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O12" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q12" t="s">
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="S12" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="T12" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
         <v>134</v>
@@ -2868,42 +2802,42 @@
         <v>#N/A</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="J13" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K13" t="s">
         <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O13" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q13" t="s">
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
         <v>135</v>
@@ -2915,7 +2849,7 @@
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -2925,27 +2859,27 @@
         <v>LinkContactsToMProjects</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
       <c r="K15" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
@@ -2955,27 +2889,27 @@
         <v>LinkContactsToOpportunities</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2985,27 +2919,27 @@
         <v>MProjectCompaniesContacts</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -3015,33 +2949,33 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="L18" t="s">
         <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -3051,33 +2985,33 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
         <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -3087,33 +3021,33 @@
         <v>#N/A</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
         <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
         <v>128</v>
@@ -3123,22 +3057,22 @@
         <v>#N/A</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3467,289 +3401,289 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G61" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H61" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I61" t="s">
         <v>31</v>
       </c>
       <c r="J61" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K61" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N61" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
         <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
         <v>72</v>
       </c>
       <c r="J62" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s">
         <v>31</v>
       </c>
       <c r="M62" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N62" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
         <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I63" t="s">
         <v>87</v>
       </c>
       <c r="J63" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K63" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
       </c>
       <c r="M63" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N63" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
         <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H64" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I64" t="s">
         <v>88</v>
       </c>
       <c r="J64" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K64" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N64" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
         <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
         <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H65" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I65" t="s">
         <v>89</v>
       </c>
       <c r="J65" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L65" t="s">
         <v>31</v>
       </c>
       <c r="M65" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N65" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E66" t="s">
         <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H66" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I66" t="s">
         <v>90</v>
       </c>
       <c r="J66" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L66" t="s">
         <v>31</v>
       </c>
       <c r="M66" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N66" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
         <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E67" t="s">
         <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G67" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H67" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I67" t="s">
         <v>91</v>
       </c>
       <c r="J67" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K67" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N67" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3761,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4650E00-41D3-4D18-8520-046A79031E4C}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,6 +3713,10 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
+      <c r="G1" t="e">
+        <f t="shared" ref="G1:G66" si="0">VLOOKUP($F$2,C1:D1,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3788,20 +3726,16 @@
         <v>153</v>
       </c>
       <c r="C2">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D2" t="s">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="F2">
-        <v>78181</v>
-      </c>
-      <c r="G2" t="e">
-        <f>VLOOKUP($F$2,C2:D2,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>26755</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3813,17 +3747,13 @@
         <v>154</v>
       </c>
       <c r="C3">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D3" t="s">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>79632</v>
-      </c>
-      <c r="G3" t="e">
-        <f t="shared" ref="G3:G66" si="0">VLOOKUP($F$2,C3:D3,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>9411067</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,17 +3765,13 @@
         <v>155</v>
       </c>
       <c r="C4">
-        <v>95324</v>
+        <v>9411067</v>
       </c>
       <c r="D4" t="s">
         <v>155</v>
       </c>
       <c r="E4">
-        <v>52042</v>
-      </c>
-      <c r="G4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9402686</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,14 +3783,13 @@
         <v>156</v>
       </c>
       <c r="C5">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="E5">
+        <v>9407570</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3872,17 +3797,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6">
-        <v>95324</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
       <c r="E6">
-        <v>78177</v>
+        <v>9411142</v>
       </c>
       <c r="G6" t="e">
         <f t="shared" si="0"/>
@@ -3895,20 +3811,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7">
-        <v>78203</v>
-      </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3917,20 +3829,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8">
-        <v>79632</v>
+        <v>9402686</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8">
-        <v>77010</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,20 +3847,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9">
-        <v>78846</v>
-      </c>
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9401060</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3961,20 +3865,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>95324</v>
+        <v>9407570</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10">
-        <v>78858</v>
-      </c>
-      <c r="G10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3983,20 +3883,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11">
-        <v>52042</v>
+        <v>9411142</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11">
-        <v>78270</v>
-      </c>
-      <c r="G11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9410837</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4004,17 +3900,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12">
-        <v>79632</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
-      </c>
       <c r="E12">
-        <v>66825</v>
+        <v>1222</v>
       </c>
       <c r="G12" t="e">
         <f t="shared" si="0"/>
@@ -4027,20 +3914,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13">
-        <v>95324</v>
+        <v>9411067</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13">
-        <v>40710</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9404825</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,20 +3932,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14">
-        <v>78517</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9410642</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,20 +3950,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15">
-        <v>78181</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9400917</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4092,14 +3967,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16">
-        <v>95324</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
+      <c r="E16">
+        <v>9406060</v>
       </c>
       <c r="G16" t="e">
         <f t="shared" si="0"/>
@@ -4111,6 +3980,9 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="E17">
+        <v>26755</v>
+      </c>
       <c r="G17" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4121,15 +3993,6 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18">
-        <v>78177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
-      </c>
       <c r="G18" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4141,17 +4004,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C19">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4160,17 +4019,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C20">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4179,17 +4034,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C21">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4198,17 +4049,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C22">
-        <v>95324</v>
+        <v>2290</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4216,15 +4063,6 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23">
-        <v>95324</v>
-      </c>
-      <c r="D23" t="s">
-        <v>173</v>
-      </c>
       <c r="G23" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4236,17 +4074,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C24">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4255,17 +4089,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C25">
-        <v>95324</v>
+        <v>9402686</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,17 +4104,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C26">
-        <v>79632</v>
+        <v>9402686</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4293,17 +4119,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C27">
-        <v>95324</v>
+        <v>2290</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4312,17 +4134,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C28">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4330,15 +4148,6 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29">
-        <v>95324</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
       <c r="G29" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4349,15 +4158,6 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30">
-        <v>95324</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
-      </c>
       <c r="G30" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4369,17 +4169,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C31">
-        <v>95324</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,17 +4184,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C32">
-        <v>95324</v>
+        <v>9401060</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,17 +4199,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C33">
-        <v>95324</v>
+        <v>9401060</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4426,17 +4214,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C34">
-        <v>95324</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4444,19 +4228,6 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35">
-        <v>95324</v>
-      </c>
-      <c r="D35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4464,17 +4235,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C36">
-        <v>95324</v>
+        <v>9401060</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,17 +4250,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C37">
-        <v>95324</v>
+        <v>9401060</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,17 +4265,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C38">
-        <v>95324</v>
+        <v>9410837</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4520,38 +4279,12 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39">
-        <v>95324</v>
-      </c>
-      <c r="D39" t="s">
-        <v>189</v>
-      </c>
-      <c r="G39" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40">
-        <v>95324</v>
-      </c>
-      <c r="D40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4559,17 +4292,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C41">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4578,17 +4307,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C42">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,15 +4321,6 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43">
-        <v>78203</v>
-      </c>
-      <c r="D43" t="s">
-        <v>193</v>
-      </c>
       <c r="G43" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4616,13 +4332,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C44">
-        <v>95324</v>
+        <v>1222</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G44" t="e">
         <f t="shared" si="0"/>
@@ -4634,15 +4350,6 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45">
-        <v>95324</v>
-      </c>
-      <c r="D45" t="s">
-        <v>195</v>
-      </c>
       <c r="G45" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4653,15 +4360,6 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46">
-        <v>95324</v>
-      </c>
-      <c r="D46" t="s">
-        <v>196</v>
-      </c>
       <c r="G46" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4672,15 +4370,6 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47">
-        <v>95324</v>
-      </c>
-      <c r="D47" t="s">
-        <v>197</v>
-      </c>
       <c r="G47" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4692,17 +4381,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C48">
-        <v>95324</v>
+        <v>2290</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,17 +4396,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C49">
-        <v>95324</v>
+        <v>9404825</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
-      </c>
-      <c r="G49" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,15 +4410,6 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50">
-        <v>95324</v>
-      </c>
-      <c r="D50" t="s">
-        <v>200</v>
-      </c>
       <c r="G50" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4748,15 +4420,6 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51">
-        <v>95324</v>
-      </c>
-      <c r="D51" t="s">
-        <v>201</v>
-      </c>
       <c r="G51" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4768,17 +4431,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C52">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,17 +4446,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C53">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4806,17 +4461,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C54">
-        <v>95324</v>
+        <v>9402686</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4835,17 +4486,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C56">
-        <v>95324</v>
+        <v>9404017</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4853,15 +4500,6 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57">
-        <v>77010</v>
-      </c>
-      <c r="D57" t="s">
-        <v>206</v>
-      </c>
       <c r="G57" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4872,15 +4510,6 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58">
-        <v>78846</v>
-      </c>
-      <c r="D58" t="s">
-        <v>207</v>
-      </c>
       <c r="G58" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4892,17 +4521,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C59">
-        <v>79632</v>
+        <v>9410642</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,13 +4536,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C60">
-        <v>79632</v>
+        <v>9400917</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G60" t="e">
         <f t="shared" si="0"/>
@@ -4930,13 +4555,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C61">
-        <v>79632</v>
+        <v>9406060</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G61" t="e">
         <f t="shared" si="0"/>
@@ -4949,13 +4574,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C62">
-        <v>78177</v>
+        <v>9406060</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G62" t="e">
         <f t="shared" si="0"/>
@@ -4967,15 +4592,6 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63">
-        <v>95324</v>
-      </c>
-      <c r="D63" t="s">
-        <v>212</v>
-      </c>
       <c r="G63" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4987,17 +4603,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C64">
-        <v>95324</v>
+        <v>26755</v>
       </c>
       <c r="D64" t="s">
-        <v>213</v>
-      </c>
-      <c r="G64" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5005,15 +4617,6 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65">
-        <v>95324</v>
-      </c>
-      <c r="D65" t="s">
-        <v>214</v>
-      </c>
       <c r="G65" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -5024,15 +4627,6 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66">
-        <v>78858</v>
-      </c>
-      <c r="D66" t="s">
-        <v>215</v>
-      </c>
       <c r="G66" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -5053,15 +4647,6 @@
         <f t="shared" ref="A68:A79" si="3">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68">
-        <v>78270</v>
-      </c>
-      <c r="D68" t="s">
-        <v>216</v>
-      </c>
       <c r="G68" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5072,15 +4657,6 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69">
-        <v>66825</v>
-      </c>
-      <c r="D69" t="s">
-        <v>217</v>
-      </c>
       <c r="G69" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5091,15 +4667,6 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70">
-        <v>40710</v>
-      </c>
-      <c r="D70" t="s">
-        <v>218</v>
-      </c>
       <c r="G70" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5110,15 +4677,6 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71">
-        <v>78270</v>
-      </c>
-      <c r="D71" t="s">
-        <v>219</v>
-      </c>
       <c r="G71" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5139,15 +4697,6 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73">
-        <v>78517</v>
-      </c>
-      <c r="D73" t="s">
-        <v>220</v>
-      </c>
       <c r="G73" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5188,15 +4737,6 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>221</v>
-      </c>
-      <c r="C77">
-        <v>95324</v>
-      </c>
-      <c r="D77" t="s">
-        <v>221</v>
-      </c>
       <c r="G77" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5207,15 +4747,6 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>222</v>
-      </c>
-      <c r="C78">
-        <v>95324</v>
-      </c>
-      <c r="D78" t="s">
-        <v>222</v>
-      </c>
       <c r="G78" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -5226,18 +4757,9 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79">
-        <v>78181</v>
-      </c>
-      <c r="D79" t="s">
-        <v>223</v>
-      </c>
-      <c r="G79" t="str">
+      <c r="G79" t="e">
         <f t="shared" si="2"/>
-        <v>78 LinkSkillsToInternalInterview</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
